--- a/Data/Lab-linked/MESAlteck_FilterIsotopes.xlsx
+++ b/Data/Lab-linked/MESAlteck_FilterIsotopes.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1460" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="3015" yWindow="1455" windowWidth="28155" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MESAlteck_FilterIsotopes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -50,9 +42,6 @@
     <t>d 13C/12C</t>
   </si>
   <si>
-    <t>DD13 (-31.21)</t>
-  </si>
-  <si>
     <t>AFP</t>
   </si>
   <si>
@@ -78,12 +67,21 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>DD13(32.253)</t>
+  </si>
+  <si>
+    <t>J+7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -93,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,47 +150,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -304,16 +280,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -582,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,18 +556,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,568 +590,650 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8">
-        <v>-25.154</v>
-      </c>
-      <c r="H2" s="9">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-26.196999999999999</v>
+      </c>
+      <c r="H2" s="11">
         <v>6.0560000000000009</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>0.73008849557522126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8">
-        <v>-28.187000000000001</v>
-      </c>
-      <c r="H3" s="9">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-29.23</v>
+      </c>
+      <c r="H3" s="11">
         <v>3.0229999999999997</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>0.82964601769911506</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8">
-        <v>-28.283000000000001</v>
-      </c>
-      <c r="H4" s="9">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-29.326000000000001</v>
+      </c>
+      <c r="H4" s="11">
         <v>2.9269999999999996</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>0.82964601769911506</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-31.660999999999998</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.5920000000000023</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.66371681415929207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-30.617999999999999</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.5920000000000023</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.66371681415929207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8">
-        <v>-26.303999999999998</v>
-      </c>
-      <c r="H6" s="9">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-27.346999999999998</v>
+      </c>
+      <c r="H6" s="11">
         <v>4.9060000000000024</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>0.73008849557522126</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-27.067</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5.1859999999999999</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.73008849557522126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8">
-        <v>-26.024000000000001</v>
-      </c>
-      <c r="H7" s="9">
-        <v>5.1859999999999999</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.73008849557522126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-27.876999999999999</v>
-      </c>
-      <c r="H8" s="9">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-28.919999999999998</v>
+      </c>
+      <c r="H8" s="11">
         <v>3.333000000000002</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>1.095132743362832</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="8">
-        <v>-26.481999999999999</v>
-      </c>
-      <c r="H9" s="9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-27.524999999999999</v>
+      </c>
+      <c r="H9" s="11">
         <v>4.7280000000000015</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>1.0287610619469025</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-30.704000000000001</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.5489999999999995</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.0619469026548671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8">
-        <v>-29.661000000000001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.5489999999999995</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1.0619469026548671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-32.230000000000004</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2.2999999999996135E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.3938053097345133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-28.026</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3.1840000000000011</v>
-      </c>
-      <c r="I11" s="11">
-        <v>4.58041958041958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="10">
+        <v>-30.475999999999999</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1.777000000000001</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.2942477876106193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8">
-        <v>-25.556999999999999</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5.6530000000000022</v>
-      </c>
-      <c r="I12" s="11">
-        <v>3.7762237762237767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-28.946000000000002</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2.2639999999999993</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5.594405594405595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-29.574999999999999</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.6780000000000008</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.2942477876106193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-28.77</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2.4400000000000013</v>
-      </c>
-      <c r="I14" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-29.068999999999999</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3.1840000000000011</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4.58041958041958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8">
-        <v>-25.373000000000001</v>
-      </c>
-      <c r="H15" s="9">
-        <v>5.8369999999999997</v>
-      </c>
-      <c r="I15" s="11">
-        <v>6.0839160839160833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-26.599999999999998</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5.6530000000000022</v>
+      </c>
+      <c r="I15" s="9">
+        <v>3.7762237762237767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-29.989000000000001</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2.2639999999999993</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.594405594405595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G16" s="8">
-        <v>-27.786999999999999</v>
-      </c>
-      <c r="H16" s="9">
-        <v>3.4230000000000018</v>
-      </c>
-      <c r="I16" s="11">
-        <v>3.2167832167832171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-25.006</v>
-      </c>
-      <c r="H17" s="9">
-        <v>6.2040000000000006</v>
-      </c>
-      <c r="I17" s="11">
-        <v>3.8461538461538458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-29.812999999999999</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2.4400000000000013</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="8">
-        <v>-28.045999999999999</v>
-      </c>
-      <c r="H18" s="9">
-        <v>3.1640000000000015</v>
-      </c>
-      <c r="I18" s="11">
-        <v>4.2307692307692308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-26.416</v>
+      </c>
+      <c r="H18" s="11">
+        <v>5.8369999999999997</v>
+      </c>
+      <c r="I18" s="9">
+        <v>6.0839160839160833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-27.213000000000001</v>
-      </c>
-      <c r="H19" s="9">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="I19" s="11">
-        <v>4.51048951048951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-28.83</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3.4230000000000018</v>
+      </c>
+      <c r="I19" s="9">
+        <v>3.2167832167832171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="8">
-        <v>-24.138000000000002</v>
-      </c>
-      <c r="H20" s="9">
-        <v>7.0719999999999992</v>
-      </c>
-      <c r="I20" s="11">
-        <v>3.6713286713286717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-26.048999999999999</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.2040000000000006</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3.8461538461538458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="8">
-        <v>-28.17</v>
-      </c>
-      <c r="H21" s="9">
+        <v>11</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-29.088999999999999</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3.1640000000000015</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4.2307692307692308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-28.256</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="I22" s="9">
+        <v>4.51048951048951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-25.181000000000001</v>
+      </c>
+      <c r="H23" s="11">
+        <v>7.0719999999999992</v>
+      </c>
+      <c r="I23" s="9">
+        <v>3.6713286713286717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-29.213000000000001</v>
+      </c>
+      <c r="H24" s="11">
         <v>3.0399999999999991</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I24" s="9">
         <v>4.86013986013986</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I21">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
+  <conditionalFormatting sqref="I2:I24">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>10</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>6.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
